--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.a_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.a_dm_test_hln_resultados.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>Parámetro</t>
   </si>
@@ -110,9 +110,6 @@
     <t>87.5%</t>
   </si>
   <si>
-    <t>12.5%</t>
-  </si>
-  <si>
     <t>0.0%</t>
   </si>
   <si>
@@ -128,22 +125,22 @@
     <t>0.9607</t>
   </si>
   <si>
-    <t>0.7523</t>
-  </si>
-  <si>
-    <t>0.7332</t>
+    <t>0.7595</t>
+  </si>
+  <si>
+    <t>0.7409</t>
   </si>
   <si>
     <t>0.5687</t>
   </si>
   <si>
-    <t>1.0716</t>
+    <t>0.8439</t>
   </si>
   <si>
     <t>0.9367</t>
   </si>
   <si>
-    <t>0.9468</t>
+    <t>0.9474</t>
   </si>
   <si>
     <t>0.2749</t>
@@ -155,22 +152,22 @@
     <t>0.9026</t>
   </si>
   <si>
-    <t>0.5009</t>
-  </si>
-  <si>
-    <t>0.5000</t>
+    <t>0.5038</t>
+  </si>
+  <si>
+    <t>0.5037</t>
   </si>
   <si>
     <t>0.2902</t>
   </si>
   <si>
-    <t>0.6418</t>
+    <t>0.6503</t>
   </si>
   <si>
     <t>0.8677</t>
   </si>
   <si>
-    <t>0.8986</t>
+    <t>0.9005</t>
   </si>
   <si>
     <t>0.5018</t>
@@ -182,22 +179,22 @@
     <t>0.9395</t>
   </si>
   <si>
-    <t>0.6659</t>
-  </si>
-  <si>
-    <t>0.6819</t>
+    <t>0.6634</t>
+  </si>
+  <si>
+    <t>0.6799</t>
   </si>
   <si>
     <t>0.5103</t>
   </si>
   <si>
-    <t>0.5990</t>
+    <t>0.7706</t>
   </si>
   <si>
     <t>0.9263</t>
   </si>
   <si>
-    <t>0.9491</t>
+    <t>0.9506</t>
   </si>
 </sst>
 </file>
@@ -730,7 +727,7 @@
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -794,7 +791,7 @@
         <v>-1</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -826,7 +823,7 @@
         <v>-1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -875,16 +872,16 @@
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -1019,22 +1016,22 @@
         <v>1.277049155579135E-05</v>
       </c>
       <c r="E2">
-        <v>1.587902476174463E-08</v>
+        <v>9.887793694929314E-09</v>
       </c>
       <c r="F2">
-        <v>5.903885114122431E-08</v>
+        <v>3.581022633980524E-08</v>
       </c>
       <c r="G2">
         <v>7.692991593755139E-05</v>
       </c>
       <c r="H2">
-        <v>2.849950497818554E-09</v>
+        <v>4.849504842230346E-05</v>
       </c>
       <c r="I2">
         <v>0.0008448892605139591</v>
       </c>
       <c r="J2">
-        <v>0.001582763815969335</v>
+        <v>0.001583936941778274</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1051,22 +1048,22 @@
         <v>0.03220937293206516</v>
       </c>
       <c r="E3">
-        <v>0.07284266200576939</v>
+        <v>0.1126513462053611</v>
       </c>
       <c r="F3">
-        <v>0.01574851519148557</v>
+        <v>0.028017883212343</v>
       </c>
       <c r="G3">
         <v>5.290516691403013E-09</v>
       </c>
       <c r="H3">
-        <v>6.209389659561637E-06</v>
+        <v>0.5409572751659724</v>
       </c>
       <c r="I3">
         <v>0.1658459731712094</v>
       </c>
       <c r="J3">
-        <v>0.1778618074043097</v>
+        <v>0.1767213519189381</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1083,22 +1080,22 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.005753126900224226</v>
+        <v>0.007249967012927128</v>
       </c>
       <c r="F4">
-        <v>0.002283441830700061</v>
+        <v>0.003107276346386634</v>
       </c>
       <c r="G4">
         <v>2.244100750048439E-05</v>
       </c>
       <c r="H4">
-        <v>0.02551990886047206</v>
+        <v>0.07057931148933161</v>
       </c>
       <c r="I4">
         <v>0.7615923045707547</v>
       </c>
       <c r="J4">
-        <v>0.8760578470781155</v>
+        <v>0.8811989039086217</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1106,31 +1103,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1.587902476174463E-08</v>
+        <v>9.887793694929314E-09</v>
       </c>
       <c r="C5">
-        <v>0.07284266200576939</v>
+        <v>0.1126513462053611</v>
       </c>
       <c r="D5">
-        <v>0.005753126900224226</v>
+        <v>0.007249967012927128</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2446313801564355</v>
+        <v>0.2574094495959982</v>
       </c>
       <c r="G5">
-        <v>1.766399115865624E-08</v>
+        <v>1.090636803091627E-08</v>
       </c>
       <c r="H5">
-        <v>1.326965857195717E-07</v>
+        <v>0.06606342043444902</v>
       </c>
       <c r="I5">
-        <v>0.049871178482362</v>
+        <v>0.05814683094478501</v>
       </c>
       <c r="J5">
-        <v>0.05728000577226289</v>
+        <v>0.06536442873693726</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1138,31 +1135,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>5.903885114122431E-08</v>
+        <v>3.581022633980524E-08</v>
       </c>
       <c r="C6">
-        <v>0.01574851519148557</v>
+        <v>0.028017883212343</v>
       </c>
       <c r="D6">
-        <v>0.002283441830700061</v>
+        <v>0.003107276346386634</v>
       </c>
       <c r="E6">
-        <v>0.2446313801564355</v>
+        <v>0.2574094495959982</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.367202365238796E-07</v>
+        <v>1.370768452080284E-07</v>
       </c>
       <c r="H6">
-        <v>6.951447639735875E-08</v>
+        <v>0.05914687881925218</v>
       </c>
       <c r="I6">
-        <v>0.03566912331180205</v>
+        <v>0.04247036289500117</v>
       </c>
       <c r="J6">
-        <v>0.04256219991546506</v>
+        <v>0.04954516074775639</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1179,22 +1176,22 @@
         <v>2.244100750048439E-05</v>
       </c>
       <c r="E7">
-        <v>1.766399115865624E-08</v>
+        <v>1.090636803091627E-08</v>
       </c>
       <c r="F7">
-        <v>2.367202365238796E-07</v>
+        <v>1.370768452080284E-07</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>3.464412312581544E-09</v>
+        <v>7.00116645138138E-05</v>
       </c>
       <c r="I7">
         <v>0.001247846599785829</v>
       </c>
       <c r="J7">
-        <v>0.002278849754105305</v>
+        <v>0.002278097591139838</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1202,31 +1199,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>2.849950497818554E-09</v>
+        <v>4.849504842230346E-05</v>
       </c>
       <c r="C8">
-        <v>6.209389659561637E-06</v>
+        <v>0.5409572751659724</v>
       </c>
       <c r="D8">
-        <v>0.02551990886047206</v>
+        <v>0.07057931148933161</v>
       </c>
       <c r="E8">
-        <v>1.326965857195717E-07</v>
+        <v>0.06606342043444902</v>
       </c>
       <c r="F8">
-        <v>6.951447639735875E-08</v>
+        <v>0.05914687881925218</v>
       </c>
       <c r="G8">
-        <v>3.464412312581544E-09</v>
+        <v>7.00116645138138E-05</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.06780653209968479</v>
+        <v>0.1814141569037915</v>
       </c>
       <c r="J8">
-        <v>0.1153646714984502</v>
+        <v>0.1806883130524053</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1243,22 +1240,22 @@
         <v>0.7615923045707547</v>
       </c>
       <c r="E9">
-        <v>0.049871178482362</v>
+        <v>0.05814683094478501</v>
       </c>
       <c r="F9">
-        <v>0.03566912331180205</v>
+        <v>0.04247036289500117</v>
       </c>
       <c r="G9">
         <v>0.001247846599785829</v>
       </c>
       <c r="H9">
-        <v>0.06780653209968479</v>
+        <v>0.1814141569037915</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.629859590039715</v>
+        <v>0.6100945777787632</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1266,28 +1263,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>0.001582763815969335</v>
+        <v>0.001583936941778274</v>
       </c>
       <c r="C10">
-        <v>0.1778618074043097</v>
+        <v>0.1767213519189381</v>
       </c>
       <c r="D10">
-        <v>0.8760578470781155</v>
+        <v>0.8811989039086217</v>
       </c>
       <c r="E10">
-        <v>0.05728000577226289</v>
+        <v>0.06536442873693726</v>
       </c>
       <c r="F10">
-        <v>0.04256219991546506</v>
+        <v>0.04954516074775639</v>
       </c>
       <c r="G10">
-        <v>0.002278849754105305</v>
+        <v>0.002278097591139838</v>
       </c>
       <c r="H10">
-        <v>0.1153646714984502</v>
+        <v>0.1806883130524053</v>
       </c>
       <c r="I10">
-        <v>0.629859590039715</v>
+        <v>0.6100945777787632</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1349,22 +1346,22 @@
         <v>-5.590631394943214</v>
       </c>
       <c r="E2">
-        <v>-8.646150140548203</v>
+        <v>-8.886130496577135</v>
       </c>
       <c r="F2">
-        <v>-7.999948713177417</v>
+        <v>-8.242775358544435</v>
       </c>
       <c r="G2">
         <v>-4.843940959691864</v>
       </c>
       <c r="H2">
-        <v>-9.535076658558205</v>
+        <v>-5.034232164166514</v>
       </c>
       <c r="I2">
         <v>-3.861538081875873</v>
       </c>
       <c r="J2">
-        <v>-3.602278784118938</v>
+        <v>-3.601971362408543</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1381,22 +1378,22 @@
         <v>-2.286569601751801</v>
       </c>
       <c r="E3">
-        <v>1.884044762354112</v>
+        <v>1.652418434545484</v>
       </c>
       <c r="F3">
-        <v>2.61677868512457</v>
+        <v>2.352287392832455</v>
       </c>
       <c r="G3">
         <v>9.208891216435564</v>
       </c>
       <c r="H3">
-        <v>-5.89632897621673</v>
+        <v>-0.6210365308978103</v>
       </c>
       <c r="I3">
         <v>-1.433249207042692</v>
       </c>
       <c r="J3">
-        <v>-1.391913666774458</v>
+        <v>-1.395739380823915</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1413,22 +1410,22 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3.058749274719472</v>
+        <v>2.959040440948883</v>
       </c>
       <c r="F4">
-        <v>3.449683943387145</v>
+        <v>3.320481476546512</v>
       </c>
       <c r="G4">
         <v>5.354256538105095</v>
       </c>
       <c r="H4">
-        <v>-2.395901438854297</v>
+        <v>1.900292346901099</v>
       </c>
       <c r="I4">
         <v>0.3071839158290139</v>
       </c>
       <c r="J4">
-        <v>0.1577948139824919</v>
+        <v>0.1511960541578196</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1436,31 +1433,31 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>8.646150140548203</v>
+        <v>8.886130496577135</v>
       </c>
       <c r="C5">
-        <v>-1.884044762354112</v>
+        <v>-1.652418434545484</v>
       </c>
       <c r="D5">
-        <v>-3.058749274719472</v>
+        <v>-2.959040440948883</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.195469185765169</v>
+        <v>1.162698386737353</v>
       </c>
       <c r="G5">
-        <v>8.592699489403001</v>
+        <v>8.836147043517117</v>
       </c>
       <c r="H5">
-        <v>-7.614466885783275</v>
+        <v>-1.934124709286154</v>
       </c>
       <c r="I5">
-        <v>-2.075147434099795</v>
+        <v>-1.998693310036997</v>
       </c>
       <c r="J5">
-        <v>-2.006229416707052</v>
+        <v>-1.939542201380715</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1468,31 +1465,31 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>7.999948713177417</v>
+        <v>8.242775358544435</v>
       </c>
       <c r="C6">
-        <v>-2.61677868512457</v>
+        <v>-2.352287392832455</v>
       </c>
       <c r="D6">
-        <v>-3.449683943387145</v>
+        <v>-3.320481476546512</v>
       </c>
       <c r="E6">
-        <v>-1.195469185765169</v>
+        <v>-1.162698386737353</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>7.344596854726364</v>
+        <v>7.599203697563123</v>
       </c>
       <c r="H6">
-        <v>-7.921434469619586</v>
+        <v>-1.990121930914116</v>
       </c>
       <c r="I6">
-        <v>-2.237986240617315</v>
+        <v>-2.153847724193407</v>
       </c>
       <c r="J6">
-        <v>-2.152797713694839</v>
+        <v>-2.078385791820676</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1509,22 +1506,22 @@
         <v>-5.354256538105095</v>
       </c>
       <c r="E7">
-        <v>-8.592699489403001</v>
+        <v>-8.836147043517117</v>
       </c>
       <c r="F7">
-        <v>-7.344596854726364</v>
+        <v>-7.599203697563123</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-9.43136771850649</v>
+        <v>-4.8827344270493</v>
       </c>
       <c r="I7">
         <v>-3.700737906976864</v>
       </c>
       <c r="J7">
-        <v>-3.45052516950462</v>
+        <v>-3.450663116837194</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1532,31 +1529,31 @@
         <v>18</v>
       </c>
       <c r="B8">
-        <v>9.535076658558205</v>
+        <v>5.034232164166514</v>
       </c>
       <c r="C8">
-        <v>5.89632897621673</v>
+        <v>0.6210365308978103</v>
       </c>
       <c r="D8">
-        <v>2.395901438854297</v>
+        <v>-1.900292346901099</v>
       </c>
       <c r="E8">
-        <v>7.614466885783275</v>
+        <v>1.934124709286154</v>
       </c>
       <c r="F8">
-        <v>7.921434469619586</v>
+        <v>1.990121930914116</v>
       </c>
       <c r="G8">
-        <v>9.43136771850649</v>
+        <v>4.8827344270493</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.920831532361133</v>
+        <v>-1.380120857081358</v>
       </c>
       <c r="J8">
-        <v>1.639343231029597</v>
+        <v>-1.382515448081809</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1573,22 +1570,22 @@
         <v>-0.3071839158290139</v>
       </c>
       <c r="E9">
-        <v>2.075147434099795</v>
+        <v>1.998693310036997</v>
       </c>
       <c r="F9">
-        <v>2.237986240617315</v>
+        <v>2.153847724193407</v>
       </c>
       <c r="G9">
         <v>3.700737906976864</v>
       </c>
       <c r="H9">
-        <v>-1.920831532361133</v>
+        <v>1.380120857081358</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.4887440599202617</v>
+        <v>-0.5173211836388842</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1596,28 +1593,28 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <v>3.602278784118938</v>
+        <v>3.601971362408543</v>
       </c>
       <c r="C10">
-        <v>1.391913666774458</v>
+        <v>1.395739380823915</v>
       </c>
       <c r="D10">
-        <v>-0.1577948139824919</v>
+        <v>-0.1511960541578196</v>
       </c>
       <c r="E10">
-        <v>2.006229416707052</v>
+        <v>1.939542201380715</v>
       </c>
       <c r="F10">
-        <v>2.152797713694839</v>
+        <v>2.078385791820676</v>
       </c>
       <c r="G10">
-        <v>3.45052516950462</v>
+        <v>3.450663116837194</v>
       </c>
       <c r="H10">
-        <v>-1.639343231029597</v>
+        <v>1.382515448081809</v>
       </c>
       <c r="I10">
-        <v>0.4887440599202617</v>
+        <v>0.5173211836388842</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1679,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1693,25 +1690,25 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1728,16 +1725,16 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1745,25 +1742,25 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1771,25 +1768,25 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1806,16 +1803,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1826,22 +1823,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1858,16 +1855,16 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1884,16 +1881,16 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.a_dm_test_hln_resultados.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Simulacion_base/6.2.a_dm_test_hln_resultados.xlsx
@@ -59,12 +59,12 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>MCPS</t>
   </si>
   <si>
@@ -119,12 +119,12 @@
     <t>0.5477</t>
   </si>
   <si>
+    <t>0.7784</t>
+  </si>
+  <si>
     <t>0.8113</t>
   </si>
   <si>
-    <t>0.9607</t>
-  </si>
-  <si>
     <t>0.7595</t>
   </si>
   <si>
@@ -146,12 +146,12 @@
     <t>0.2749</t>
   </si>
   <si>
+    <t>0.5424</t>
+  </si>
+  <si>
     <t>0.5979</t>
   </si>
   <si>
-    <t>0.9026</t>
-  </si>
-  <si>
     <t>0.5038</t>
   </si>
   <si>
@@ -173,10 +173,10 @@
     <t>0.5018</t>
   </si>
   <si>
+    <t>0.6968</t>
+  </si>
+  <si>
     <t>0.7370</t>
-  </si>
-  <si>
-    <t>0.9395</t>
   </si>
   <si>
     <t>0.6634</t>
@@ -1010,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>2.565412327015792E-10</v>
+      </c>
+      <c r="D2">
         <v>1.176800212832063E-09</v>
-      </c>
-      <c r="D2">
-        <v>1.277049155579135E-05</v>
       </c>
       <c r="E2">
         <v>9.887793694929314E-09</v>
@@ -1039,31 +1039,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>1.176800212832063E-09</v>
+        <v>2.565412327015792E-10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03220937293206516</v>
+        <v>0.04857386869698344</v>
       </c>
       <c r="E3">
-        <v>0.1126513462053611</v>
+        <v>0.5268464423914816</v>
       </c>
       <c r="F3">
-        <v>0.028017883212343</v>
+        <v>0.1800657254820428</v>
       </c>
       <c r="G3">
-        <v>5.290516691403013E-09</v>
+        <v>9.383924748362915E-10</v>
       </c>
       <c r="H3">
-        <v>0.5409572751659724</v>
+        <v>0.2558204081525433</v>
       </c>
       <c r="I3">
-        <v>0.1658459731712094</v>
+        <v>0.1090030560728956</v>
       </c>
       <c r="J3">
-        <v>0.1767213519189381</v>
+        <v>0.1218174779132404</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1071,31 +1071,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>1.277049155579135E-05</v>
+        <v>1.176800212832063E-09</v>
       </c>
       <c r="C4">
-        <v>0.03220937293206516</v>
+        <v>0.04857386869698344</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.007249967012927128</v>
+        <v>0.1126513462053611</v>
       </c>
       <c r="F4">
-        <v>0.003107276346386634</v>
+        <v>0.028017883212343</v>
       </c>
       <c r="G4">
-        <v>2.244100750048439E-05</v>
+        <v>5.290516691403013E-09</v>
       </c>
       <c r="H4">
-        <v>0.07057931148933161</v>
+        <v>0.5409572751659724</v>
       </c>
       <c r="I4">
-        <v>0.7615923045707547</v>
+        <v>0.1658459731712094</v>
       </c>
       <c r="J4">
-        <v>0.8811989039086217</v>
+        <v>0.1767213519189381</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1106,10 +1106,10 @@
         <v>9.887793694929314E-09</v>
       </c>
       <c r="C5">
+        <v>0.5268464423914816</v>
+      </c>
+      <c r="D5">
         <v>0.1126513462053611</v>
-      </c>
-      <c r="D5">
-        <v>0.007249967012927128</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1138,10 +1138,10 @@
         <v>3.581022633980524E-08</v>
       </c>
       <c r="C6">
+        <v>0.1800657254820428</v>
+      </c>
+      <c r="D6">
         <v>0.028017883212343</v>
-      </c>
-      <c r="D6">
-        <v>0.003107276346386634</v>
       </c>
       <c r="E6">
         <v>0.2574094495959982</v>
@@ -1170,10 +1170,10 @@
         <v>7.692991593755139E-05</v>
       </c>
       <c r="C7">
+        <v>9.383924748362915E-10</v>
+      </c>
+      <c r="D7">
         <v>5.290516691403013E-09</v>
-      </c>
-      <c r="D7">
-        <v>2.244100750048439E-05</v>
       </c>
       <c r="E7">
         <v>1.090636803091627E-08</v>
@@ -1202,10 +1202,10 @@
         <v>4.849504842230346E-05</v>
       </c>
       <c r="C8">
+        <v>0.2558204081525433</v>
+      </c>
+      <c r="D8">
         <v>0.5409572751659724</v>
-      </c>
-      <c r="D8">
-        <v>0.07057931148933161</v>
       </c>
       <c r="E8">
         <v>0.06606342043444902</v>
@@ -1234,10 +1234,10 @@
         <v>0.0008448892605139591</v>
       </c>
       <c r="C9">
+        <v>0.1090030560728956</v>
+      </c>
+      <c r="D9">
         <v>0.1658459731712094</v>
-      </c>
-      <c r="D9">
-        <v>0.7615923045707547</v>
       </c>
       <c r="E9">
         <v>0.05814683094478501</v>
@@ -1266,10 +1266,10 @@
         <v>0.001583936941778274</v>
       </c>
       <c r="C10">
+        <v>0.1218174779132404</v>
+      </c>
+      <c r="D10">
         <v>0.1767213519189381</v>
-      </c>
-      <c r="D10">
-        <v>0.8811989039086217</v>
       </c>
       <c r="E10">
         <v>0.06536442873693726</v>
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>-10.87575213492686</v>
+      </c>
+      <c r="D2">
         <v>-10.01400570283196</v>
-      </c>
-      <c r="D2">
-        <v>-5.590631394943214</v>
       </c>
       <c r="E2">
         <v>-8.886130496577135</v>
@@ -1369,31 +1369,31 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>10.01400570283196</v>
+        <v>10.87575213492686</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-2.286569601751801</v>
+        <v>-2.088148253900181</v>
       </c>
       <c r="E3">
-        <v>1.652418434545484</v>
+        <v>0.6430366127503121</v>
       </c>
       <c r="F3">
-        <v>2.352287392832455</v>
+        <v>1.384575484511581</v>
       </c>
       <c r="G3">
-        <v>9.208891216435564</v>
+        <v>10.13905072359772</v>
       </c>
       <c r="H3">
-        <v>-0.6210365308978103</v>
+        <v>-1.166706719855327</v>
       </c>
       <c r="I3">
-        <v>-1.433249207042692</v>
+        <v>-1.670424102934224</v>
       </c>
       <c r="J3">
-        <v>-1.395739380823915</v>
+        <v>-1.609255537431357</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1401,31 +1401,31 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>5.590631394943214</v>
+        <v>10.01400570283196</v>
       </c>
       <c r="C4">
-        <v>2.286569601751801</v>
+        <v>2.088148253900181</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.959040440948883</v>
+        <v>1.652418434545484</v>
       </c>
       <c r="F4">
-        <v>3.320481476546512</v>
+        <v>2.352287392832455</v>
       </c>
       <c r="G4">
-        <v>5.354256538105095</v>
+        <v>9.208891216435564</v>
       </c>
       <c r="H4">
-        <v>1.900292346901099</v>
+        <v>-0.6210365308978103</v>
       </c>
       <c r="I4">
-        <v>0.3071839158290139</v>
+        <v>-1.433249207042692</v>
       </c>
       <c r="J4">
-        <v>0.1511960541578196</v>
+        <v>-1.395739380823915</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1436,10 +1436,10 @@
         <v>8.886130496577135</v>
       </c>
       <c r="C5">
+        <v>-0.6430366127503121</v>
+      </c>
+      <c r="D5">
         <v>-1.652418434545484</v>
-      </c>
-      <c r="D5">
-        <v>-2.959040440948883</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>8.242775358544435</v>
       </c>
       <c r="C6">
+        <v>-1.384575484511581</v>
+      </c>
+      <c r="D6">
         <v>-2.352287392832455</v>
-      </c>
-      <c r="D6">
-        <v>-3.320481476546512</v>
       </c>
       <c r="E6">
         <v>-1.162698386737353</v>
@@ -1500,10 +1500,10 @@
         <v>4.843940959691864</v>
       </c>
       <c r="C7">
+        <v>-10.13905072359772</v>
+      </c>
+      <c r="D7">
         <v>-9.208891216435564</v>
-      </c>
-      <c r="D7">
-        <v>-5.354256538105095</v>
       </c>
       <c r="E7">
         <v>-8.836147043517117</v>
@@ -1532,10 +1532,10 @@
         <v>5.034232164166514</v>
       </c>
       <c r="C8">
+        <v>1.166706719855327</v>
+      </c>
+      <c r="D8">
         <v>0.6210365308978103</v>
-      </c>
-      <c r="D8">
-        <v>-1.900292346901099</v>
       </c>
       <c r="E8">
         <v>1.934124709286154</v>
@@ -1564,10 +1564,10 @@
         <v>3.861538081875873</v>
       </c>
       <c r="C9">
+        <v>1.670424102934224</v>
+      </c>
+      <c r="D9">
         <v>1.433249207042692</v>
-      </c>
-      <c r="D9">
-        <v>-0.3071839158290139</v>
       </c>
       <c r="E9">
         <v>1.998693310036997</v>
@@ -1596,10 +1596,10 @@
         <v>3.601971362408543</v>
       </c>
       <c r="C10">
+        <v>1.609255537431357</v>
+      </c>
+      <c r="D10">
         <v>1.395739380823915</v>
-      </c>
-      <c r="D10">
-        <v>-0.1511960541578196</v>
       </c>
       <c r="E10">
         <v>1.939542201380715</v>
